--- a/banhang24/Template/ExportExcel/Download/0973474985/28fef5a1-f0f2-4b94-a4ad-081b227f3b77/DanhSachPhieuTiepNhan.xlsx
+++ b/banhang24/Template/ExportExcel/Download/0973474985/28fef5a1-f0f2-4b94-a4ad-081b227f3b77/DanhSachPhieuTiepNhan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <t>Mã phiếu tiếp nhận</t>
   </si>
@@ -64,106 +64,220 @@
     <t>Chi nhánh</t>
   </si>
   <si>
-    <t>PTN7132307</t>
-  </si>
-  <si>
-    <t>30A-9632</t>
-  </si>
-  <si>
-    <t>KH0806023</t>
-  </si>
-  <si>
-    <t>Trần Văn Vinh</t>
+    <t>Đơn vị bảo hiểm</t>
+  </si>
+  <si>
+    <t>PTN7132532</t>
+  </si>
+  <si>
+    <t>29A96838</t>
+  </si>
+  <si>
+    <t>KH0741206</t>
+  </si>
+  <si>
+    <t>Test BangGia_NhomVip</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Lê Hải Phong</t>
-  </si>
-  <si>
     <t>Đang sửa</t>
   </si>
   <si>
     <t>Ssoft CN Cầu Giấy</t>
   </si>
   <si>
-    <t>PTN7132306</t>
-  </si>
-  <si>
-    <t>29G12396</t>
-  </si>
-  <si>
-    <t>KH0806028</t>
-  </si>
-  <si>
-    <t>Trần Đăng Khôi</t>
+    <t>PTN7132531</t>
+  </si>
+  <si>
+    <t>28-Y415.26</t>
+  </si>
+  <si>
+    <t>KH0752313</t>
+  </si>
+  <si>
+    <t>nguyễn thị liên</t>
   </si>
   <si>
     <t>Nguyễn Trần Như Lan Anh</t>
   </si>
   <si>
-    <t>PTN7132305</t>
-  </si>
-  <si>
-    <t>29B-002</t>
-  </si>
-  <si>
-    <t>KH0806021</t>
-  </si>
-  <si>
-    <t>Phòng Hậu Cần (PH10) - Công An thành phố Hà Nội</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>PTN7132301</t>
-  </si>
-  <si>
-    <t>20F22215</t>
-  </si>
-  <si>
-    <t>PTN7132300</t>
-  </si>
-  <si>
-    <t>22A1502</t>
-  </si>
-  <si>
-    <t>KH0806025</t>
-  </si>
-  <si>
-    <t>Phạm Văn Bình</t>
-  </si>
-  <si>
-    <t>Lưu Thanh Bình</t>
-  </si>
-  <si>
-    <t>PTN7132298</t>
-  </si>
-  <si>
-    <t>31D9635</t>
-  </si>
-  <si>
-    <t>KH0768165</t>
-  </si>
-  <si>
-    <t>nguyễn văn bình</t>
-  </si>
-  <si>
-    <t>PTN7132297</t>
-  </si>
-  <si>
-    <t>10C44823</t>
-  </si>
-  <si>
-    <t>KH0806024</t>
-  </si>
-  <si>
-    <t>CX_ChuaDauCach_2201</t>
-  </si>
-  <si>
-    <t>thuy</t>
+    <t>NV000242 tiepnhan</t>
+  </si>
+  <si>
+    <t>An Phong insurence</t>
+  </si>
+  <si>
+    <t>PTN7132529</t>
+  </si>
+  <si>
+    <t>98A07520</t>
+  </si>
+  <si>
+    <t>PTN7132528</t>
+  </si>
+  <si>
+    <t>18T132439</t>
+  </si>
+  <si>
+    <t>KH0751065</t>
+  </si>
+  <si>
+    <t>Khoa sản</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>PTN7132526</t>
+  </si>
+  <si>
+    <t>30A72074</t>
+  </si>
+  <si>
+    <t>KH0798555</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Nho (KNĐ)</t>
+  </si>
+  <si>
+    <t>PTN7132520</t>
+  </si>
+  <si>
+    <t>30A03980</t>
+  </si>
+  <si>
+    <t>KH0765028</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Nguyễn Thảo Phương</t>
+  </si>
+  <si>
+    <t>Công ty Bảo hiểm CN 04</t>
+  </si>
+  <si>
+    <t>PTN7132517</t>
+  </si>
+  <si>
+    <t>99D00371</t>
+  </si>
+  <si>
+    <t>KH334409040</t>
+  </si>
+  <si>
+    <t>async - GiaoDich_BanDatTra</t>
+  </si>
+  <si>
+    <t>Đã xuất xưởng</t>
+  </si>
+  <si>
+    <t>PTN7132516</t>
+  </si>
+  <si>
+    <t>30A95225</t>
+  </si>
+  <si>
+    <t>KH0767393</t>
+  </si>
+  <si>
+    <t>KH nạp cọc - tạo BG</t>
+  </si>
+  <si>
+    <t>PTN7132515</t>
+  </si>
+  <si>
+    <t>29S1216</t>
+  </si>
+  <si>
+    <t>KH0804859</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phương</t>
+  </si>
+  <si>
+    <t>leeuato- test after- asyn</t>
+  </si>
+  <si>
+    <t>PTN7132514</t>
+  </si>
+  <si>
+    <t>30A50736</t>
+  </si>
+  <si>
+    <t>KH0805589</t>
+  </si>
+  <si>
+    <t>20210127_KH03_Coc</t>
+  </si>
+  <si>
+    <t>PTN7132513</t>
+  </si>
+  <si>
+    <t>29A41625</t>
+  </si>
+  <si>
+    <t>KH0764535</t>
+  </si>
+  <si>
+    <t>TRIỆU QUANG ANH( BS PHONG)</t>
+  </si>
+  <si>
+    <t>GiamGia_HD_01</t>
+  </si>
+  <si>
+    <t>PTN7132512</t>
+  </si>
+  <si>
+    <t>CG2708_X1</t>
+  </si>
+  <si>
+    <t>KH0764834</t>
+  </si>
+  <si>
+    <t>TGT_Nguyen Duc Thang</t>
+  </si>
+  <si>
+    <t>PTN7132511</t>
+  </si>
+  <si>
+    <t>29D09518</t>
+  </si>
+  <si>
+    <t>KH0755645</t>
+  </si>
+  <si>
+    <t>đồng (bs như hưng)</t>
+  </si>
+  <si>
+    <t>PTN7132510</t>
+  </si>
+  <si>
+    <t>90A04340</t>
+  </si>
+  <si>
+    <t>KH334409039</t>
+  </si>
+  <si>
+    <t>Codenew_async</t>
+  </si>
+  <si>
+    <t>PTN7132509</t>
+  </si>
+  <si>
+    <t>30A91581</t>
+  </si>
+  <si>
+    <t>PTN7132508</t>
+  </si>
+  <si>
+    <t>KH0777064</t>
+  </si>
+  <si>
+    <t>1412_ Tuân Anh A5</t>
   </si>
 </sst>
 </file>
@@ -638,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -661,9 +775,10 @@
     <col min="11" max="11" width="7.57142857142857" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.71428571428571" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="15.8571428571429" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33.75" customHeight="1">
+    <row r="1" spans="1:14" ht="33.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
@@ -679,8 +794,9 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1">
+      <c r="N1" s="12"/>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -720,36 +836,39 @@
       <c r="M3" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="15">
+      <c r="N3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="7" customFormat="1" ht="15">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6">
-        <v>44611.3722222222</v>
+        <v>45230.3826388889</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="8">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>20</v>
@@ -757,13 +876,14 @@
       <c r="M4" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6">
-        <v>44610.3673611111</v>
+        <v>45222.4798611111</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
@@ -775,18 +895,18 @@
         <v>25</v>
       </c>
       <c r="F5" s="8">
-        <v>0</v>
+        <v>4546</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="8">
-        <v>0</v>
+        <v>4546</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>20</v>
@@ -794,22 +914,25 @@
       <c r="M5" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15">
+      <c r="N5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6">
-        <v>44608.3743055556</v>
+        <v>45222.4159722222</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -820,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>20</v>
@@ -831,38 +954,37 @@
       <c r="M6" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45219.4736111111</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6">
-        <v>44607.5888888889</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F7" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="6">
-        <v>44610.5833333333</v>
-      </c>
+        <v>4563</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="8">
-        <v>10000</v>
+        <v>4563</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>20</v>
@@ -870,36 +992,37 @@
       <c r="M7" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="15">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6">
-        <v>44607.36875</v>
+        <v>45218.4763888889</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" s="8">
-        <v>20000</v>
+        <v>55550</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="8">
-        <v>20000</v>
+        <v>55550</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>20</v>
@@ -907,36 +1030,37 @@
       <c r="M8" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15">
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="15">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6">
-        <v>44604.5791666667</v>
+        <v>45215.4680555556</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>45200</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="8">
-        <v>0</v>
+        <v>45200</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>20</v>
@@ -944,47 +1068,411 @@
       <c r="M9" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15">
+      <c r="N9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6">
-        <v>44601.5888888889</v>
+        <v>45212.6673611111</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="8">
+        <v>125</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>45215.3888888889</v>
+      </c>
+      <c r="I10" s="8">
+        <v>125</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="15">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45212.6055555556</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="8">
+        <v>786</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>45215.4541666667</v>
+      </c>
+      <c r="I11" s="8">
+        <v>786</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="15">
+      <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45212.6048611111</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="8">
+        <v>7450</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="8">
+        <v>7450</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="15">
+      <c r="A13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45212.5979166667</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1560</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="8">
+        <v>1560</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="15">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45212.5861111111</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="8">
+        <v>741</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="8">
+        <v>741</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15">
+      <c r="A15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45212.5701388889</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="8">
+        <v>555</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>45215.4715277778</v>
+      </c>
+      <c r="I15" s="8">
+        <v>555</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="15">
+      <c r="A16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45212.5631944444</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="8">
+        <v>789</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>45212.5701388889</v>
+      </c>
+      <c r="I16" s="8">
+        <v>789</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="15">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45212.4986111111</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="8">
+        <v>456</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <v>45212.5020833333</v>
+      </c>
+      <c r="I17" s="8">
+        <v>456</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15">
+      <c r="A18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45212.4909722222</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="8">
+        <v>256</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
+        <v>45212.4986111111</v>
+      </c>
+      <c r="I18" s="8">
+        <v>256</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="15">
+      <c r="A19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45212.4715277778</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="8">
+        <v>23434</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <v>45212.4909722222</v>
+      </c>
+      <c r="I19" s="8">
+        <v>23434</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
